--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,43 +525,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.319169508462315</v>
+        <v>0.5869213333333333</v>
       </c>
       <c r="H2">
-        <v>0.319169508462315</v>
+        <v>1.760764</v>
       </c>
       <c r="I2">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="J2">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.83096593594545</v>
+        <v>3.105595666666666</v>
       </c>
       <c r="N2">
-        <v>2.83096593594545</v>
+        <v>9.316787</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9035580062492669</v>
+        <v>1.822740349474222</v>
       </c>
       <c r="R2">
-        <v>0.9035580062492669</v>
+        <v>16.404663145268</v>
       </c>
       <c r="S2">
-        <v>0.01036914306430435</v>
+        <v>0.01834079054277507</v>
       </c>
       <c r="T2">
-        <v>0.01036914306430435</v>
+        <v>0.02446997850397404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,43 +587,43 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.68705163946554</v>
+        <v>7.268947999999999</v>
       </c>
       <c r="H3">
-        <v>6.68705163946554</v>
+        <v>21.806844</v>
       </c>
       <c r="I3">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="J3">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.83096593594545</v>
+        <v>3.105595666666666</v>
       </c>
       <c r="N3">
-        <v>2.83096593594545</v>
+        <v>9.316787</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>18.93081540323512</v>
+        <v>22.57441341002533</v>
       </c>
       <c r="R3">
-        <v>18.93081540323512</v>
+        <v>203.169720690228</v>
       </c>
       <c r="S3">
-        <v>0.2172481809495788</v>
+        <v>0.2271484186426865</v>
       </c>
       <c r="T3">
-        <v>0.2172481809495788</v>
+        <v>0.3030576522007011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,43 +649,43 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>23.7744814118673</v>
+        <v>0.070339</v>
       </c>
       <c r="H4">
-        <v>23.7744814118673</v>
+        <v>0.211017</v>
       </c>
       <c r="I4">
-        <v>0.7723826759861169</v>
+        <v>0.002198033693308568</v>
       </c>
       <c r="J4">
-        <v>0.7723826759861169</v>
+        <v>0.002932580092490016</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.83096593594545</v>
+        <v>3.105595666666666</v>
       </c>
       <c r="N4">
-        <v>2.83096593594545</v>
+        <v>9.316787</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +694,140 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>67.30474702176461</v>
+        <v>0.2184444935976667</v>
       </c>
       <c r="R4">
-        <v>67.30474702176461</v>
+        <v>1.966000442379</v>
       </c>
       <c r="S4">
-        <v>0.7723826759861169</v>
+        <v>0.002198033693308568</v>
       </c>
       <c r="T4">
-        <v>0.7723826759861169</v>
+        <v>0.002932580092490016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.028134</v>
+      </c>
+      <c r="H5">
+        <v>0.084402</v>
+      </c>
+      <c r="I5">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="J5">
+        <v>0.001172965329648049</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.105595666666666</v>
+      </c>
+      <c r="N5">
+        <v>9.316787</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.087372828486</v>
+      </c>
+      <c r="R5">
+        <v>0.7863554563740001</v>
+      </c>
+      <c r="S5">
+        <v>0.0008791634786895356</v>
+      </c>
+      <c r="T5">
+        <v>0.001172965329648049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>24.046532</v>
+      </c>
+      <c r="H6">
+        <v>48.093064</v>
+      </c>
+      <c r="I6">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="J6">
+        <v>0.6683668238731867</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.105595666666666</v>
+      </c>
+      <c r="N6">
+        <v>9.316787</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>74.67880557756132</v>
+      </c>
+      <c r="R6">
+        <v>448.072833465368</v>
+      </c>
+      <c r="S6">
+        <v>0.7514335936425405</v>
+      </c>
+      <c r="T6">
+        <v>0.6683668238731867</v>
       </c>
     </row>
   </sheetData>
